--- a/Waho/wwwroot/Supplier.xlsx
+++ b/Waho/wwwroot/Supplier.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Tên công ty</t>
   </si>
@@ -53,19 +53,31 @@
     <t>09694059581</t>
   </si>
   <si>
+    <t>0000</t>
+  </si>
+  <si>
     <t>Swe</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>H2T</t>
   </si>
   <si>
+    <t xml:space="preserve">0122589 </t>
+  </si>
+  <si>
+    <t>SSSTUTER</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
     <t>0122589</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>SSSTUTER</t>
+    <t>update</t>
   </si>
   <si>
     <t>21St</t>
@@ -99,6 +111,24 @@
   </si>
   <si>
     <t>test update</t>
+  </si>
+  <si>
+    <t>21St 1231</t>
+  </si>
+  <si>
+    <t>quiz113</t>
+  </si>
+  <si>
+    <t>SSSTUTER ad</t>
+  </si>
+  <si>
+    <t>999999000</t>
+  </si>
+  <si>
+    <t>SSSTUTER insert</t>
+  </si>
+  <si>
+    <t>01225891</t>
   </si>
 </sst>
 </file>
@@ -144,7 +174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -192,13 +222,19 @@
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -213,18 +249,18 @@
         <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -238,13 +274,19 @@
       <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -258,13 +300,19 @@
       <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -278,13 +326,19 @@
       <c r="E6" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -298,13 +352,19 @@
       <c r="E7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -318,13 +378,19 @@
       <c r="E8" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -338,13 +404,19 @@
       <c r="E9" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -359,12 +431,12 @@
         <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -378,13 +450,19 @@
       <c r="E11" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -398,13 +476,19 @@
       <c r="E12" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -419,12 +503,12 @@
         <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -439,12 +523,12 @@
         <v>12</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -459,12 +543,12 @@
         <v>12</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>9</v>
@@ -479,219 +563,137 @@
         <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Waho/wwwroot/Supplier.xlsx
+++ b/Waho/wwwroot/Supplier.xlsx
@@ -74,10 +74,10 @@
     <t>123123</t>
   </si>
   <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>0122589</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>21St</t>
@@ -462,7 +462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -477,13 +477,13 @@
         <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -609,7 +609,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>27</v>
@@ -635,7 +635,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>27</v>
